--- a/ShowsByTypeExcel.xlsx
+++ b/ShowsByTypeExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enavate-my.sharepoint.com/personal/chris_studebaker_enavate_com/Documents/Documents/000 Book Repo/Programming-Microsoft-Dynamics-365-Business-Central-Seventh-Edition/Chapter04 - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Programming-Microsoft-Dynamics-365-Business-Central-Seventh-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{13525EBA-74AF-4DEE-8E74-3DBBBC87BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EC5931C-577F-4844-8064-EF0E78C48C76}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588CB3A-838D-4F40-99E9-FCB86C897583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>CaptionValue</t>
   </si>
   <si>
-    <t>UserCommnet</t>
-  </si>
-  <si>
     <t>Code_RadioShowType</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>UserComment</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <numFmt numFmtId="164" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -542,7 +542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -592,7 +592,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -731,7 +731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -768,7 +768,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1393,10 +1393,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1606,7 +1602,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:H2" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:H2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="UserCommnet"/>
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="UserComment"/>
     <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Code_RadioShowType"/>
     <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Type"/>
     <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="No_RadioShow"/>
@@ -1985,57 +1981,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2060,16 +2056,16 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2096,13 +2092,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2134,22 +2130,22 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2271,7 +2267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2328,53 +2324,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF14FA3C-DED2-4B37-AB43-71D0B81F8483}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="str" cm="1">
         <f t="array" ref="A1">_xlfn._xlws.FILTER(CaptionData[Value],CaptionData[Caption]="ReportTitle","")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
-        <f>Data[[#This Row],[UserCommnet]]</f>
+        <f>Data[[#This Row],[UserComment]]</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2392,27 +2388,27 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="str" cm="1">
         <f t="array" ref="A1">_xlfn._xlws.FILTER(CaptionData[Value],CaptionData[Caption] = "ReportTitle","")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
-        <f>Data[[#This Row],[UserCommnet]]</f>
+        <f>Data[[#This Row],[UserComment]]</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="str" cm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER(CaptionData[Value],CaptionData[Caption] = "ShowTypeTitle","")</f>
         <v/>
@@ -2426,7 +2422,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str" cm="1">
         <f t="array" ref="A4">_xlfn._xlws.FILTER(Data[Type],Data[Code_RadioShowType]&lt;&gt;"","")</f>
         <v/>
@@ -2440,94 +2436,94 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
     </row>
   </sheetData>
